--- a/biology/Zoologie/Devadattidae/Devadattidae.xlsx
+++ b/biology/Zoologie/Devadattidae/Devadattidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Devadattidae sont une famille de libellules du sous-ordre des zygoptères dans l'ordre  des odonates.
-Cette famille ne comprend que le genre Devadatta, anciennement placé dans les Amphipterygidae[1] et qui regroupe six espèces[2].
+Cette famille ne comprend que le genre Devadatta, anciennement placé dans les Amphipterygidae et qui regroupe six espèces.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Devadatta provient du Pali, une langue indo-européenne et a pour signification « don de dieu »[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Devadatta provient du Pali, une langue indo-européenne et a pour signification « don de dieu ». 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (6 février 2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (6 février 2021) :
 Devadatta Kirby, 1890</t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Klaas-Douwe B. Dijkstra, Vincent J. Kalkman, Rory A. Dow, Frank R. Stokvis et Jan van Tol, « Redefining the damselfly families: a comprehensive molecular phylogeny of Zygoptera (Odonata) », Systematic Entomology, Wiley-Blackwell, vol. 39, no 1,‎ 26 août 2013, p. 68-96 (ISSN 0307-6970 et 1365-3113, DOI 10.1111/SYEN.12035, lire en ligne)</t>
         </is>
